--- a/23_24/Competition Filter/Documentation/ConfigFile.xlsx
+++ b/23_24/Competition Filter/Documentation/ConfigFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alain\Alain Developer\General Projects\Premier League Analysis\23_24\Competition Filter\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76111AD-944C-450D-9313-D6E94C7900C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2A3BE6-40A7-4D5C-88A9-B8B6E0F08A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,10 +39,10 @@
     <t>output_path</t>
   </si>
   <si>
-    <t>Output</t>
-  </si>
-  <si>
-    <t>Input Dataset</t>
+    <t>../Input/big_5_players_stats_2023_2024.csv</t>
+  </si>
+  <si>
+    <t>../Output</t>
   </si>
 </sst>
 </file>
@@ -383,7 +383,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,7 +405,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -413,7 +413,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
